--- a/eclipse-workspace/cnqaosautomationscript/src/main/java/com/cnqaos/testdata/cnqaosstudentaccountdata.xlsx
+++ b/eclipse-workspace/cnqaosautomationscript/src/main/java/com/cnqaos/testdata/cnqaosstudentaccountdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
   <si>
     <t>centername</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Homme</t>
   </si>
   <si>
-    <t>student name automation</t>
-  </si>
-  <si>
     <t>studetnaddress sangamner</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>TRAINON</t>
   </si>
   <si>
-    <t>nitintajanewq@treee.com</t>
-  </si>
-  <si>
     <t>01-06-1992</t>
   </si>
   <si>
@@ -132,16 +126,61 @@
     <t>trainingname</t>
   </si>
   <si>
-    <t>F008-ITYSS training automation</t>
-  </si>
-  <si>
-    <t>OPTIMISATION DES ACHATS</t>
-  </si>
-  <si>
     <t>additonal training</t>
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>AAA nitin</t>
+  </si>
+  <si>
+    <t>AAA tajane</t>
+  </si>
+  <si>
+    <t>AAA vijendra</t>
+  </si>
+  <si>
+    <t>AAA pravin</t>
+  </si>
+  <si>
+    <t>AAA sachin</t>
+  </si>
+  <si>
+    <t>AAA shital</t>
+  </si>
+  <si>
+    <t>AAA sakshi</t>
+  </si>
+  <si>
+    <t>nitintajanewq1@treee.com</t>
+  </si>
+  <si>
+    <t>nitintajanewq2@treee.com</t>
+  </si>
+  <si>
+    <t>nitintajanewq11@treee.com</t>
+  </si>
+  <si>
+    <t>nitintajanewq22@treee.com</t>
+  </si>
+  <si>
+    <t>nitintajanewq31@treee.com</t>
+  </si>
+  <si>
+    <t>nitintajanewq32@treee.com</t>
+  </si>
+  <si>
+    <t>Alternance certifiante</t>
+  </si>
+  <si>
+    <t>F023-AA2 training AC</t>
+  </si>
+  <si>
+    <t>F024-AA3 training AFC</t>
+  </si>
+  <si>
+    <t>AA1 training ADC</t>
   </si>
 </sst>
 </file>
@@ -474,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,37 +570,37 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
       <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
         <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s">
-        <v>40</v>
       </c>
       <c r="V1" t="s">
         <v>10</v>
@@ -581,16 +620,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>323212</v>
@@ -599,46 +638,472 @@
         <v>12343212345</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O2">
         <v>1223333333</v>
       </c>
       <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>323212</v>
+      </c>
+      <c r="I3">
+        <v>12343212345</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>1223333333</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>323212</v>
+      </c>
+      <c r="I4">
+        <v>12343212345</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>1223333333</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>41</v>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>323212</v>
+      </c>
+      <c r="I5">
+        <v>12343212345</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5">
+        <v>1223333333</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>323212</v>
+      </c>
+      <c r="I6">
+        <v>12343212345</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6">
+        <v>1223333333</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>323212</v>
+      </c>
+      <c r="I7">
+        <v>12343212345</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>1223333333</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>323212</v>
+      </c>
+      <c r="I8">
+        <v>12343212345</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>1223333333</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/eclipse-workspace/cnqaosautomationscript/src/main/java/com/cnqaos/testdata/cnqaosstudentaccountdata.xlsx
+++ b/eclipse-workspace/cnqaosautomationscript/src/main/java/com/cnqaos/testdata/cnqaosstudentaccountdata.xlsx
@@ -54,9 +54,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>amrutvahini</t>
-  </si>
-  <si>
     <t>Docteur</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>education field</t>
   </si>
   <si>
-    <t>Alternance formation complémentaire</t>
-  </si>
-  <si>
     <t>training type</t>
   </si>
   <si>
@@ -132,27 +126,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>AAA nitin</t>
-  </si>
-  <si>
-    <t>AAA tajane</t>
-  </si>
-  <si>
-    <t>AAA vijendra</t>
-  </si>
-  <si>
-    <t>AAA pravin</t>
-  </si>
-  <si>
-    <t>AAA sachin</t>
-  </si>
-  <si>
-    <t>AAA shital</t>
-  </si>
-  <si>
-    <t>AAA sakshi</t>
-  </si>
-  <si>
     <t>nitintajanewq1@treee.com</t>
   </si>
   <si>
@@ -174,13 +147,40 @@
     <t>Alternance certifiante</t>
   </si>
   <si>
-    <t>F023-AA2 training AC</t>
-  </si>
-  <si>
-    <t>F024-AA3 training AFC</t>
-  </si>
-  <si>
-    <t>AA1 training ADC</t>
+    <t>protonmail</t>
+  </si>
+  <si>
+    <t>zohomail</t>
+  </si>
+  <si>
+    <t>yandex mail</t>
+  </si>
+  <si>
+    <t>yahoo mail</t>
+  </si>
+  <si>
+    <t>nitin gmail</t>
+  </si>
+  <si>
+    <t>tutanota  gmail</t>
+  </si>
+  <si>
+    <t>nitintajane gmail</t>
+  </si>
+  <si>
+    <t>ITYSS  nitin</t>
+  </si>
+  <si>
+    <t>ityss developer training ADC</t>
+  </si>
+  <si>
+    <t>Alternance formation complÃ©mentaire</t>
+  </si>
+  <si>
+    <t>F006-ityss testing training AC</t>
+  </si>
+  <si>
+    <t>F008-ityss requiement training AFC</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,7 +534,7 @@
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="20.28515625" customWidth="1"/>
     <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,37 +570,37 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
       <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
         <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
       </c>
       <c r="V1" t="s">
         <v>10</v>
@@ -611,25 +611,25 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2">
         <v>323212</v>
@@ -638,69 +638,69 @@
         <v>12343212345</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2">
         <v>1223333333</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>323212</v>
@@ -709,69 +709,69 @@
         <v>12343212345</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3">
         <v>1223333333</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
       <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
       <c r="H4">
         <v>323212</v>
@@ -780,69 +780,69 @@
         <v>12343212345</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4">
         <v>1223333333</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
       <c r="S4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
       <c r="H5">
         <v>323212</v>
@@ -851,69 +851,69 @@
         <v>12343212345</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <v>1223333333</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>323212</v>
@@ -922,69 +922,69 @@
         <v>12343212345</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6">
         <v>1223333333</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
         <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
       </c>
       <c r="H7">
         <v>323212</v>
@@ -993,69 +993,69 @@
         <v>12343212345</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7">
         <v>1223333333</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
-        <v>31</v>
-      </c>
       <c r="S7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" t="s">
-        <v>54</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
       </c>
       <c r="H8">
         <v>323212</v>
@@ -1064,46 +1064,46 @@
         <v>12343212345</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8">
         <v>1223333333</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" t="s">
         <v>30</v>
       </c>
-      <c r="R8" t="s">
-        <v>31</v>
-      </c>
       <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" t="s">
         <v>51</v>
       </c>
-      <c r="T8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" t="s">
-        <v>54</v>
-      </c>
       <c r="V8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
